--- a/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.2.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.2.xlsx
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.64601769911505</v>
+        <v>84.36578171091445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3197433758933281</v>
+        <v>0.5193723206641152</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8964601769911503</v>
+        <v>0.8436578171091446</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8845760305343878</v>
+        <v>0.8283863763354133</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.18323687921176</v>
+        <v>90.97466241057448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2094472431488005</v>
+        <v>0.2463898940608487</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9218323687921176</v>
+        <v>0.9097466241057448</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9216802388615873</v>
+        <v>0.9074417034013631</v>
       </c>
     </row>
     <row r="4">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.55162241887906</v>
+        <v>86.54884557824894</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3562950733850206</v>
+        <v>0.3810184128339945</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8755162241887906</v>
+        <v>0.8654884557824895</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8610970716755897</v>
+        <v>0.8562109208988791</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89.35120546025485</v>
+        <v>88.58631995086463</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2353698172878163</v>
+        <v>0.2572532795990506</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8935120546025483</v>
+        <v>0.8858631995086462</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8927775479534763</v>
+        <v>0.8879984416010533</v>
       </c>
     </row>
     <row r="6">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94.12979351032449</v>
+        <v>93.33367935708786</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1875477821294529</v>
+        <v>0.2000994337101777</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9412979351032448</v>
+        <v>0.9333367935708786</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9405346004691619</v>
+        <v>0.9318910842466966</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.31458749643164</v>
+        <v>81.57622470782619</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3739566818228923</v>
+        <v>0.6235227811965161</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8631458749643162</v>
+        <v>0.8157622470782619</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8544338765968199</v>
+        <v>0.8057696593065747</v>
       </c>
     </row>
     <row r="8">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.84660766961652</v>
+        <v>81.60347407849549</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2749342176023978</v>
+        <v>0.4318850217024495</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8784660766961652</v>
+        <v>0.816034740784955</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8730796249270124</v>
+        <v>0.8021997934678513</v>
       </c>
     </row>
     <row r="9">
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.65781710914455</v>
+        <v>88.49903545878423</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1538820507039418</v>
+        <v>0.2777138069704961</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9365781710914455</v>
+        <v>0.8849903545878425</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9354200452158462</v>
+        <v>0.8846696971005054</v>
       </c>
     </row>
     <row r="10">
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>94.89744720975094</v>
+        <v>94.80981669391603</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1458395444448645</v>
+        <v>0.1480444072238583</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9489744720975095</v>
+        <v>0.9480981669391604</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9484984736005495</v>
+        <v>0.9481557131451332</v>
       </c>
     </row>
     <row r="11">
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.53773821572851</v>
+        <v>92.8033979532695</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1611616228708347</v>
+        <v>0.1582178547142879</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9253773821572852</v>
+        <v>0.9280339795326948</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9245574589481376</v>
+        <v>0.9259297486858855</v>
       </c>
     </row>
     <row r="12">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>87.93510324483776</v>
+        <v>86.01804513879878</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3693708837604693</v>
+        <v>0.3511881032454161</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8793510324483776</v>
+        <v>0.8601804513879877</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8624954488627756</v>
+        <v>0.8537652211012354</v>
       </c>
     </row>
     <row r="13">
@@ -682,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.87731727783111</v>
+        <v>91.18236316923158</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3577352444262942</v>
+        <v>0.2215222314310571</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8787731727783112</v>
+        <v>0.9118236316923156</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8703041559529069</v>
+        <v>0.9079482067086966</v>
       </c>
     </row>
     <row r="14">
@@ -701,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>90.20666268739349</v>
+        <v>88.99756918312441</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2346362654207041</v>
+        <v>0.2564768323500175</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9020666268739349</v>
+        <v>0.8899756918312443</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8984268339796015</v>
+        <v>0.8834305769183329</v>
       </c>
     </row>
     <row r="15">
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>85.72340591181585</v>
+        <v>81.35883528404226</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3388196462144454</v>
+        <v>0.4377219723227124</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8572340591181584</v>
+        <v>0.8135883528404225</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8489113226588986</v>
+        <v>0.8004808904981193</v>
       </c>
     </row>
     <row r="16">
@@ -739,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86.28785716139413</v>
+        <v>84.02114205140182</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3321633948168407</v>
+        <v>0.3772611564025283</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8628785716139413</v>
+        <v>0.8402114205140183</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8576493772860829</v>
+        <v>0.8317655091381019</v>
       </c>
     </row>
     <row r="17">
@@ -758,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.35988200589971</v>
+        <v>92.74336283185841</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1796177740975205</v>
+        <v>0.1926372711973575</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9235988200589971</v>
+        <v>0.9274336283185841</v>
       </c>
       <c r="E17" t="n">
-        <v>0.922545114830896</v>
+        <v>0.9263042188721087</v>
       </c>
     </row>
     <row r="18">
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91.56549797143575</v>
+        <v>88.71106151437296</v>
       </c>
       <c r="C18" t="n">
-        <v>0.235668609637878</v>
+        <v>0.3386608622429776</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9156549797143574</v>
+        <v>0.8871106151437296</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9103811872786618</v>
+        <v>0.8835037642235575</v>
       </c>
     </row>
     <row r="19">
@@ -796,16 +796,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.69043849860293</v>
+        <v>93.5108435194076</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1387297804118134</v>
+        <v>0.1788765470303285</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9469043849860294</v>
+        <v>0.9351084351940762</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9446443533729794</v>
+        <v>0.9290464887752764</v>
       </c>
     </row>
     <row r="20">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>88.96893571743701</v>
+        <v>88.67498853796313</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2923784568803967</v>
+        <v>0.2869161476342318</v>
       </c>
       <c r="D20" t="n">
-        <v>0.88968935717437</v>
+        <v>0.8867498853796313</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8806257116188844</v>
+        <v>0.8830279197289282</v>
       </c>
     </row>
     <row r="21">
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.52764297269007</v>
+        <v>75.79451379337192</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6114867389473754</v>
+        <v>0.7293084775781609</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7552764297269008</v>
+        <v>0.7579451379337192</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7332712655575636</v>
+        <v>0.7310091027020431</v>
       </c>
     </row>
     <row r="22">
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.64652808415298</v>
+        <v>87.23457815379025</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3184589828519772</v>
+        <v>0.349465919782718</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8864652808415296</v>
+        <v>0.8723457815379027</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8722186693392906</v>
+        <v>0.8654213762933178</v>
       </c>
     </row>
     <row r="23">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>87.28613569321534</v>
+        <v>88.96789764617341</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3715388390051279</v>
+        <v>0.2925650126223142</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8728613569321535</v>
+        <v>0.8896789764617342</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8696958761257638</v>
+        <v>0.8856479548241097</v>
       </c>
     </row>
     <row r="24">
@@ -891,16 +891,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>92.06541579079403</v>
+        <v>90.35467434839401</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1884035249931306</v>
+        <v>0.232387780609497</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9206541579079405</v>
+        <v>0.9035467434839403</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9203890373411594</v>
+        <v>0.9029751917999704</v>
       </c>
     </row>
     <row r="25">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.46902654867257</v>
+        <v>88.20128201801053</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3096850394319821</v>
+        <v>0.3240674057199309</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8946902654867257</v>
+        <v>0.8820128201801054</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8895514883536789</v>
+        <v>0.8769749033629142</v>
       </c>
     </row>
     <row r="26">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89.02654867256638</v>
+        <v>86.22678396871945</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2717881831474491</v>
+        <v>0.3347843860648936</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8902654867256636</v>
+        <v>0.8622678396871946</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8825802455214887</v>
+        <v>0.8534485773731209</v>
       </c>
     </row>
     <row r="27">
@@ -948,16 +948,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>81.56342182890856</v>
+        <v>78.40829072915855</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7377030965702337</v>
+        <v>0.7073494049052594</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8156342182890854</v>
+        <v>0.7840829072915856</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8066883169369113</v>
+        <v>0.7686614703150665</v>
       </c>
     </row>
     <row r="28">
@@ -967,16 +967,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.00607271689202</v>
+        <v>82.00676476440108</v>
       </c>
       <c r="C28" t="n">
-        <v>0.646060899560689</v>
+        <v>0.639264709991888</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8200607271689201</v>
+        <v>0.8200676476440109</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8055854299032396</v>
+        <v>0.8061067483913076</v>
       </c>
     </row>
     <row r="29">
@@ -986,16 +986,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.40707964601771</v>
+        <v>98.11209439528024</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04183963884057296</v>
+        <v>0.05375761361154522</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9840707964601769</v>
+        <v>0.9811209439528025</v>
       </c>
       <c r="E29" t="n">
-        <v>0.984068155782364</v>
+        <v>0.9811148504440184</v>
       </c>
     </row>
     <row r="30">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.90855457227138</v>
+        <v>97.75863113002708</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02791176247421087</v>
+        <v>0.05142443200093112</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9890855457227138</v>
+        <v>0.9775863113002707</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9891102283345848</v>
+        <v>0.9775062766499705</v>
       </c>
     </row>
     <row r="31">
@@ -1024,16 +1024,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.69321533923303</v>
+        <v>96.13569321533923</v>
       </c>
       <c r="C31" t="n">
-        <v>0.110506269142445</v>
+        <v>0.09031250444130212</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9569321533923304</v>
+        <v>0.9613569321533924</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9552772328068876</v>
+        <v>0.9603311309837139</v>
       </c>
     </row>
     <row r="32">
@@ -1043,16 +1043,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>89.74436053368397</v>
+        <v>88.25068844309494</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2844226813306969</v>
+        <v>0.3229821994620288</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8974436053368395</v>
+        <v>0.8825068844309496</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8913691473542396</v>
+        <v>0.8762374505764423</v>
       </c>
     </row>
     <row r="33">
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.837578755231535</v>
+        <v>5.423965254894064</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1586613299660573</v>
+        <v>0.1754369934512749</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04837578755231536</v>
+        <v>0.05423965254894063</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0530325132286424</v>
+        <v>0.05974459469636571</v>
       </c>
     </row>
   </sheetData>
@@ -1127,16 +1127,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.94117596172978</v>
+        <v>86.19538231299579</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3107320682480349</v>
+        <v>0.3867906539235264</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8994117596172977</v>
+        <v>0.8619538231299579</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8838365702096805</v>
+        <v>0.8592778048925028</v>
       </c>
     </row>
     <row r="3">
@@ -1146,16 +1146,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.36675057742714</v>
+        <v>87.37861054161368</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3712929566269546</v>
+        <v>0.3012386020932657</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8636675057742714</v>
+        <v>0.8737861054161368</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8566118368179267</v>
+        <v>0.8738508691653252</v>
       </c>
     </row>
     <row r="4">
@@ -1165,16 +1165,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.8731563421829</v>
+        <v>83.83653837835968</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4328528643833124</v>
+        <v>0.4825777482057068</v>
       </c>
       <c r="D4" t="n">
-        <v>0.868731563421829</v>
+        <v>0.8383653837835967</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8484139817459747</v>
+        <v>0.8206026208031514</v>
       </c>
     </row>
     <row r="5">
@@ -1184,16 +1184,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.78830266697808</v>
+        <v>79.86271507538993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2986513438324133</v>
+        <v>0.4769714507429549</v>
       </c>
       <c r="D5" t="n">
-        <v>0.877883026669781</v>
+        <v>0.7986271507538992</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8734244961863334</v>
+        <v>0.7857243033510275</v>
       </c>
     </row>
     <row r="6">
@@ -1203,16 +1203,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92.35988200589971</v>
+        <v>88.32117924895545</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2171149239797766</v>
+        <v>0.3110348335156838</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9235988200589971</v>
+        <v>0.8832117924895544</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9219284166366849</v>
+        <v>0.8820567525273461</v>
       </c>
     </row>
     <row r="7">
@@ -1222,16 +1222,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.08936063460757</v>
+        <v>80.00484433256342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.248289737633119</v>
+        <v>0.4792323485637705</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9008936063460757</v>
+        <v>0.8000484433256343</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8994442737349158</v>
+        <v>0.7819925268561605</v>
       </c>
     </row>
     <row r="8">
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84.57400150520333</v>
+        <v>81.54309293332987</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3991716022308689</v>
+        <v>0.4479358655347218</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8457400150520333</v>
+        <v>0.8154309293332987</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8324489504225575</v>
+        <v>0.805841628978504</v>
       </c>
     </row>
     <row r="9">
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.38850682099326</v>
+        <v>89.08779487711831</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2119130966270556</v>
+        <v>0.2727444582851604</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9138850682099326</v>
+        <v>0.8908779487711831</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9124068831128731</v>
+        <v>0.8900624011323796</v>
       </c>
     </row>
     <row r="10">
@@ -1279,16 +1279,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>94.21863510930025</v>
+        <v>91.83098469709947</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1435808829705214</v>
+        <v>0.2186308274320709</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9421863510930025</v>
+        <v>0.9183098469709945</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9403732116108662</v>
+        <v>0.9160239645161775</v>
       </c>
     </row>
     <row r="11">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.8037266758363</v>
+        <v>90.68140727860967</v>
       </c>
       <c r="C11" t="n">
-        <v>0.196341001773059</v>
+        <v>0.2073716645541329</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9080372667583629</v>
+        <v>0.9068140727860967</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9082044247357347</v>
+        <v>0.9067330204013768</v>
       </c>
     </row>
     <row r="12">
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>86.40117994100295</v>
+        <v>88.05396240451907</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4658648522143873</v>
+        <v>0.2945410423718082</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8640117994100296</v>
+        <v>0.8805396240451907</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8501048598279721</v>
+        <v>0.8822149055811399</v>
       </c>
     </row>
     <row r="13">
@@ -1336,16 +1336,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.77043054005658</v>
+        <v>87.61857801538075</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2134474253786417</v>
+        <v>0.3237970366453131</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9177043054005658</v>
+        <v>0.8761857801538075</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9133620102029985</v>
+        <v>0.8726530161511226</v>
       </c>
     </row>
     <row r="14">
@@ -1355,16 +1355,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.43709720672324</v>
+        <v>84.69251464113012</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2867045647942481</v>
+        <v>0.3565367284696549</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8843709720672324</v>
+        <v>0.8469251464113011</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8766190647195555</v>
+        <v>0.8424127820869559</v>
       </c>
     </row>
     <row r="15">
@@ -1374,16 +1374,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80.24861806763035</v>
+        <v>83.63056773847525</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4391055416112067</v>
+        <v>0.3857009150087833</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8024861806763035</v>
+        <v>0.8363056773847525</v>
       </c>
       <c r="E15" t="n">
-        <v>0.795677282959351</v>
+        <v>0.8335135323721066</v>
       </c>
     </row>
     <row r="16">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.14919679235979</v>
+        <v>78.49237450150954</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3498918650050958</v>
+        <v>0.5441840594168752</v>
       </c>
       <c r="D16" t="n">
-        <v>0.871491967923598</v>
+        <v>0.7849237450150952</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8688600000287913</v>
+        <v>0.7778845416274108</v>
       </c>
     </row>
     <row r="17">
@@ -1412,16 +1412,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>90.53166549883649</v>
+        <v>91.38643067846608</v>
       </c>
       <c r="C17" t="n">
-        <v>0.249742517604318</v>
+        <v>0.2223441987414844</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9053166549883649</v>
+        <v>0.9138643067846608</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9018835739857934</v>
+        <v>0.9116447645535372</v>
       </c>
     </row>
     <row r="18">
@@ -1431,16 +1431,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>85.71051652695958</v>
+        <v>87.80266265279111</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3887873550821117</v>
+        <v>0.3011997142719414</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8571051652695958</v>
+        <v>0.8780266265279112</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8407408831179861</v>
+        <v>0.8757517395807165</v>
       </c>
     </row>
     <row r="19">
@@ -1450,16 +1450,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.42772861356931</v>
+        <v>91.50511682627013</v>
       </c>
       <c r="C19" t="n">
-        <v>0.146209263127821</v>
+        <v>0.2167592700008147</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9542772861356932</v>
+        <v>0.9150511682627013</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9541845138208582</v>
+        <v>0.9132834522044142</v>
       </c>
     </row>
     <row r="20">
@@ -1469,16 +1469,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>87.08206818398084</v>
+        <v>84.22347944186369</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3097850854624994</v>
+        <v>0.3739118840855857</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8708206818398082</v>
+        <v>0.8422347944186368</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8633934178002012</v>
+        <v>0.8408149410839135</v>
       </c>
     </row>
     <row r="21">
@@ -1488,16 +1488,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>70.14325383437573</v>
+        <v>72.92147855950311</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6999227560590953</v>
+        <v>0.7698510477629801</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7014325383437573</v>
+        <v>0.7292147855950312</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6874640183937157</v>
+        <v>0.7098726826559483</v>
       </c>
     </row>
     <row r="22">
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.29494199776815</v>
+        <v>83.31508058028183</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5605218366875003</v>
+        <v>0.5294534590405723</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8529494199776815</v>
+        <v>0.8331508058028184</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8305293750907599</v>
+        <v>0.8148302629508007</v>
       </c>
     </row>
     <row r="23">
@@ -1526,16 +1526,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89.32205295893564</v>
+        <v>85.34200122838433</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2757424135420782</v>
+        <v>0.3926135310903192</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8932205295893564</v>
+        <v>0.8534200122838433</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8918876603279158</v>
+        <v>0.8499360781989471</v>
       </c>
     </row>
     <row r="24">
@@ -1545,16 +1545,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91.47527227744186</v>
+        <v>89.70639884428066</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2150737696390327</v>
+        <v>0.2397775934341553</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9147527227744184</v>
+        <v>0.8970639884428065</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9137518632836358</v>
+        <v>0.8969149361495674</v>
       </c>
     </row>
     <row r="25">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.3496397027656</v>
+        <v>82.86672030034862</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3159999353859652</v>
+        <v>0.445693127065897</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8834963970276559</v>
+        <v>0.8286672030034861</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8824213169340218</v>
+        <v>0.8235688381523752</v>
       </c>
     </row>
     <row r="26">
@@ -1583,16 +1583,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89.11504424778761</v>
+        <v>86.78535281447071</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2882265663230404</v>
+        <v>0.3089955321103238</v>
       </c>
       <c r="D26" t="n">
-        <v>0.891150442477876</v>
+        <v>0.8678535281447072</v>
       </c>
       <c r="E26" t="n">
-        <v>0.879932977381257</v>
+        <v>0.8644019440732562</v>
       </c>
     </row>
     <row r="27">
@@ -1602,16 +1602,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>80.88495575221239</v>
+        <v>79.18130779678025</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7673853075476169</v>
+        <v>0.7039216038227701</v>
       </c>
       <c r="D27" t="n">
-        <v>0.808849557522124</v>
+        <v>0.7918130779678025</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8010493675766167</v>
+        <v>0.7712529658047204</v>
       </c>
     </row>
     <row r="28">
@@ -1621,16 +1621,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.92087301793268</v>
+        <v>83.54103409199041</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6397112599394555</v>
+        <v>0.6585029755680202</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8292087301793268</v>
+        <v>0.8354103409199041</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8155426738051368</v>
+        <v>0.8138765119903791</v>
       </c>
     </row>
     <row r="29">
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.73156342182891</v>
+        <v>96.69616519174042</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04521940575403581</v>
+        <v>0.09394378807619433</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9873156342182892</v>
+        <v>0.9669616519174042</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9873214568843451</v>
+        <v>0.9669034431133994</v>
       </c>
     </row>
     <row r="30">
@@ -1659,16 +1659,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.66961651917404</v>
+        <v>91.62536008096956</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06489879287939856</v>
+        <v>0.1868930116858792</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9766961651917404</v>
+        <v>0.9162536008096955</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9768290909518782</v>
+        <v>0.9130726951574024</v>
       </c>
     </row>
     <row r="31">
@@ -1678,16 +1678,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.81120943952803</v>
+        <v>96.69616519174042</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1210128137254079</v>
+        <v>0.09935149363244213</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9581120943952802</v>
+        <v>0.9669616519174042</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9573269048566967</v>
+        <v>0.9666033935017291</v>
       </c>
     </row>
     <row r="32">
@@ -1697,16 +1697,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>88.56268076136759</v>
+        <v>86.16084337523104</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3224397935356024</v>
+        <v>0.3677500155050935</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8856268076136761</v>
+        <v>0.8616084337523106</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8788658452387678</v>
+        <v>0.8554524439871264</v>
       </c>
     </row>
     <row r="33">
@@ -1716,16 +1716,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.55064471014122</v>
+        <v>5.235356425476766</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1715953549982322</v>
+        <v>0.1620552335252309</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05550644710141218</v>
+        <v>0.05235356425476766</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05960109472378727</v>
+        <v>0.05770729338949813</v>
       </c>
     </row>
   </sheetData>
@@ -1781,16 +1781,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84.51517746693311</v>
+        <v>83.01196377131291</v>
       </c>
       <c r="C2" t="n">
-        <v>0.455261189606972</v>
+        <v>0.4915293345538278</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8451517746693311</v>
+        <v>0.830119637713129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.835797013558478</v>
+        <v>0.8250931815287998</v>
       </c>
     </row>
     <row r="3">
@@ -1800,16 +1800,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.40081661606069</v>
+        <v>85.69736762428741</v>
       </c>
       <c r="C3" t="n">
-        <v>0.43062722949738</v>
+        <v>0.3573642042649832</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8440081661606069</v>
+        <v>0.8569736762428741</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8385585402652623</v>
+        <v>0.8544787433606743</v>
       </c>
     </row>
     <row r="4">
@@ -1819,16 +1819,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.95575221238938</v>
+        <v>83.18757082673726</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4686992251624663</v>
+        <v>0.4987744901174059</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8495575221238937</v>
+        <v>0.8318757082673726</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8327690348370564</v>
+        <v>0.8132008848280403</v>
       </c>
     </row>
     <row r="5">
@@ -1838,16 +1838,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.63505739669029</v>
+        <v>77.69020493256862</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4252226770118189</v>
+        <v>0.4910464022308588</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8263505739669028</v>
+        <v>0.7769020493256862</v>
       </c>
       <c r="E5" t="n">
-        <v>0.816072231254428</v>
+        <v>0.7653417957421395</v>
       </c>
     </row>
     <row r="6">
@@ -1857,16 +1857,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89.49973615688717</v>
+        <v>85.99892732636096</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2872545463343461</v>
+        <v>0.3726403877139092</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8949973615688718</v>
+        <v>0.8599892732636096</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8937289686081575</v>
+        <v>0.8575529366993093</v>
       </c>
     </row>
     <row r="7">
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.09154923485497</v>
+        <v>75.20246714936981</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4150013349407042</v>
+        <v>0.9137422550935298</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8309154923485498</v>
+        <v>0.752024671493698</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8291620588289186</v>
+        <v>0.716731755930525</v>
       </c>
     </row>
     <row r="8">
@@ -1895,16 +1895,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.78794799262968</v>
+        <v>84.2878398602064</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3324051072083724</v>
+        <v>0.3527789210701788</v>
       </c>
       <c r="D8" t="n">
-        <v>0.867879479926297</v>
+        <v>0.842878398602064</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8617845326340621</v>
+        <v>0.8363067831467014</v>
       </c>
     </row>
     <row r="9">
@@ -1914,16 +1914,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>89.76712601320079</v>
+        <v>89.59428714781271</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2435910798439485</v>
+        <v>0.2330325121302546</v>
       </c>
       <c r="D9" t="n">
-        <v>0.897671260132008</v>
+        <v>0.895942871478127</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8965482450963161</v>
+        <v>0.8957824680090271</v>
       </c>
     </row>
     <row r="10">
@@ -1933,16 +1933,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>87.9071618266594</v>
+        <v>90.06176524018375</v>
       </c>
       <c r="C10" t="n">
-        <v>0.348663934061066</v>
+        <v>0.2470607934471749</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8790716182665939</v>
+        <v>0.9006176524018373</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8728896756158473</v>
+        <v>0.8991534672318346</v>
       </c>
     </row>
     <row r="11">
@@ -1952,16 +1952,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.65138106731027</v>
+        <v>89.47560100000865</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2200216586197106</v>
+        <v>0.2494963362036894</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8965138106731028</v>
+        <v>0.8947560100000865</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8947258369882916</v>
+        <v>0.8928240787735102</v>
       </c>
     </row>
     <row r="12">
@@ -1971,16 +1971,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.30105796762948</v>
+        <v>86.37393057033366</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5490323382779024</v>
+        <v>0.3468990009084034</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8230105796762948</v>
+        <v>0.8637393057033366</v>
       </c>
       <c r="E12" t="n">
-        <v>0.816430081905386</v>
+        <v>0.8653197166516848</v>
       </c>
     </row>
     <row r="13">
@@ -1990,16 +1990,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.64896755162242</v>
+        <v>87.94150468429658</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2485010004912814</v>
+        <v>0.3196293618219594</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9064896755162242</v>
+        <v>0.8794150468429658</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9044836498759642</v>
+        <v>0.874359745793341</v>
       </c>
     </row>
     <row r="14">
@@ -2009,16 +2009,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>85.39874912412736</v>
+        <v>84.13532989039697</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3545800219678009</v>
+        <v>0.3869376298806552</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8539874912412737</v>
+        <v>0.8413532989039698</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8453057007397085</v>
+        <v>0.8287358148500783</v>
       </c>
     </row>
     <row r="15">
@@ -2028,16 +2028,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>84.31180200520767</v>
+        <v>76.73604442945009</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3942594283570846</v>
+        <v>0.6303015760766963</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8431180200520766</v>
+        <v>0.7673604442945008</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8350080855213129</v>
+        <v>0.749649973664324</v>
       </c>
     </row>
     <row r="16">
@@ -2047,16 +2047,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>81.37284924610074</v>
+        <v>74.77919359164007</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5263602461044987</v>
+        <v>0.6954714740471293</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8137284924610075</v>
+        <v>0.7477919359164007</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8037144443638884</v>
+        <v>0.7343057521070959</v>
       </c>
     </row>
     <row r="17">
@@ -2066,16 +2066,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.82942759020406</v>
+        <v>89.74004965440878</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1908540980385927</v>
+        <v>0.2275073684868403</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9182942759020406</v>
+        <v>0.8974004965440876</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9173122693895174</v>
+        <v>0.8968238659722187</v>
       </c>
     </row>
     <row r="18">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>85.64477201359873</v>
+        <v>82.79223868718587</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3903648597219823</v>
+        <v>0.4296239626874012</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8564477201359872</v>
+        <v>0.8279223868718587</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8501092237442128</v>
+        <v>0.8180847476342354</v>
       </c>
     </row>
     <row r="19">
@@ -2104,16 +2104,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.79663318886841</v>
+        <v>88.91305288108029</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2441390768041553</v>
+        <v>0.2526076201659938</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9079663318886843</v>
+        <v>0.8891305288108029</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9064687959103326</v>
+        <v>0.8895519107192384</v>
       </c>
     </row>
     <row r="20">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>81.63089646104206</v>
+        <v>78.212008754401</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4848001114247987</v>
+        <v>0.6249978375931581</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8163089646104205</v>
+        <v>0.7821200875440099</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8086869935096981</v>
+        <v>0.7714465638684797</v>
       </c>
     </row>
     <row r="21">
@@ -2142,16 +2142,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>67.27964774781789</v>
+        <v>68.37022811616018</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9137776521519603</v>
+        <v>0.8415881553587192</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6727964774781789</v>
+        <v>0.6837022811616017</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6426607198524061</v>
+        <v>0.6605230136567004</v>
       </c>
     </row>
     <row r="22">
@@ -2161,16 +2161,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.1430981236862</v>
+        <v>83.17225927559927</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5310225369641557</v>
+        <v>0.5679474811690549</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8214309812368619</v>
+        <v>0.8317225927559928</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8121158078578141</v>
+        <v>0.8110428389486838</v>
       </c>
     </row>
     <row r="23">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>84.48446785871849</v>
+        <v>84.4299691173799</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3713904050974331</v>
+        <v>0.3498090249641488</v>
       </c>
       <c r="D23" t="n">
-        <v>0.844844678587185</v>
+        <v>0.8442996911737991</v>
       </c>
       <c r="E23" t="n">
-        <v>0.837115691426253</v>
+        <v>0.8395722586299991</v>
       </c>
     </row>
     <row r="24">
@@ -2199,16 +2199,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>87.52298895319163</v>
+        <v>83.69959947750414</v>
       </c>
       <c r="C24" t="n">
-        <v>0.321881039753013</v>
+        <v>0.4176677771223088</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8752298895319164</v>
+        <v>0.8369959947750413</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8715382847713704</v>
+        <v>0.8358679410271661</v>
       </c>
     </row>
     <row r="25">
@@ -2218,16 +2218,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.38989956660524</v>
+        <v>80.8333982127873</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5100953370798379</v>
+        <v>0.507756457508852</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8238989956660525</v>
+        <v>0.8083339821278731</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8188702022564112</v>
+        <v>0.7992241435418542</v>
       </c>
     </row>
     <row r="26">
@@ -2237,16 +2237,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>86.06000051903564</v>
+        <v>83.80755888891773</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3489599327372465</v>
+        <v>0.3662665536646576</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8606000051903564</v>
+        <v>0.8380755888891773</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8553397537359431</v>
+        <v>0.8283221980722842</v>
       </c>
     </row>
     <row r="27">
@@ -2256,16 +2256,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>80.26600576129552</v>
+        <v>79.29687973079352</v>
       </c>
       <c r="C27" t="n">
-        <v>0.771979560495917</v>
+        <v>0.7527771678229328</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8026600576129551</v>
+        <v>0.7929687973079351</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7975791195994829</v>
+        <v>0.7885730271815312</v>
       </c>
     </row>
     <row r="28">
@@ -2275,16 +2275,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.26947464943468</v>
+        <v>76.1408835716572</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6875291443352277</v>
+        <v>0.7856225857511163</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8126947464943468</v>
+        <v>0.7614088357165719</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7974708833611918</v>
+        <v>0.7454545419580114</v>
       </c>
     </row>
     <row r="29">
@@ -2294,16 +2294,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>96.3716814159292</v>
+        <v>95.13274336283186</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1074185160321576</v>
+        <v>0.1453109939716039</v>
       </c>
       <c r="D29" t="n">
-        <v>0.963716814159292</v>
+        <v>0.9513274336283185</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9639468248700054</v>
+        <v>0.9511547645478317</v>
       </c>
     </row>
     <row r="30">
@@ -2313,16 +2313,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>94.51344734816045</v>
+        <v>93.27658543759028</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1256153270256012</v>
+        <v>0.1717391911409019</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9451344734816045</v>
+        <v>0.9327658543759029</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9451125044045703</v>
+        <v>0.9321522986698019</v>
       </c>
     </row>
     <row r="31">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.48672566371681</v>
+        <v>96.69685723924947</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1268665050594185</v>
+        <v>0.1016642190946489</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9548672566371682</v>
+        <v>0.9669685723924948</v>
       </c>
       <c r="E31" t="n">
-        <v>0.953318202990357</v>
+        <v>0.9665889582596796</v>
       </c>
     </row>
     <row r="32">
@@ -2351,16 +2351,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>85.8311432913203</v>
+        <v>83.95627701508374</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3942058373402284</v>
+        <v>0.4376530358687665</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8583114329132028</v>
+        <v>0.8395627701508376</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8518207792590882</v>
+        <v>0.8314406723668267</v>
       </c>
     </row>
     <row r="33">
@@ -2370,16 +2370,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.51729581219048</v>
+        <v>6.285427566840424</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1810338354109296</v>
+        <v>0.2079444888020136</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05517295812190481</v>
+        <v>0.06285427566840425</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06028626453694106</v>
+        <v>0.06950150169812655</v>
       </c>
     </row>
   </sheetData>
@@ -2435,16 +2435,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.13929186238636</v>
+        <v>78.30206143651762</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7855112138825159</v>
+        <v>0.6059633476659656</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7213929186238636</v>
+        <v>0.7830206143651761</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6914858714024261</v>
+        <v>0.7637958609693306</v>
       </c>
     </row>
     <row r="3">
@@ -2454,16 +2454,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.42592929004576</v>
+        <v>77.82013685239492</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5131618643179536</v>
+        <v>0.5520575858342152</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7742592929004577</v>
+        <v>0.7782013685239492</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7733635554833185</v>
+        <v>0.7763910254298449</v>
       </c>
     </row>
     <row r="4">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.3314129014957</v>
+        <v>78.70985043123211</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4827220806386322</v>
+        <v>0.6223361757273476</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8133141290149568</v>
+        <v>0.7870985043123211</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8056833097421521</v>
+        <v>0.7697321373760738</v>
       </c>
     </row>
     <row r="5">
@@ -2492,16 +2492,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.27202657462435</v>
+        <v>70.77604477547384</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5355739009256164</v>
+        <v>0.6780952757845322</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7627202657462435</v>
+        <v>0.7077604477547383</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7459545237354146</v>
+        <v>0.6993174535018519</v>
       </c>
     </row>
     <row r="6">
@@ -2511,16 +2511,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.06623759721104</v>
+        <v>75.01275962594832</v>
       </c>
       <c r="C6" t="n">
-        <v>0.578754655768474</v>
+        <v>0.6228661152223746</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7706623759721105</v>
+        <v>0.7501275962594832</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7563110101790467</v>
+        <v>0.7363153890246218</v>
       </c>
     </row>
     <row r="7">
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.49146618915388</v>
+        <v>73.01516449104231</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7165742143988609</v>
+        <v>0.6854975388695796</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7349146618915389</v>
+        <v>0.7301516449104231</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7144122397285255</v>
+        <v>0.7170735039156286</v>
       </c>
     </row>
     <row r="8">
@@ -2549,16 +2549,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>81.54655317087517</v>
+        <v>78.55171757541156</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4230331869698906</v>
+        <v>0.5246138259167007</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8154655317087517</v>
+        <v>0.7855171757541155</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8127624345446453</v>
+        <v>0.7857683983676559</v>
       </c>
     </row>
     <row r="9">
@@ -2568,16 +2568,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.30396456716753</v>
+        <v>79.27897300149655</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5296179726254195</v>
+        <v>0.5295620624014797</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7830396456716754</v>
+        <v>0.7927897300149656</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7767393866209265</v>
+        <v>0.7859000739686595</v>
       </c>
     </row>
     <row r="10">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.51880206576182</v>
+        <v>84.13792506855596</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3875154006450127</v>
+        <v>0.3836893197566193</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8351880206576181</v>
+        <v>0.8413792506855596</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8351774388761916</v>
+        <v>0.8288827641578651</v>
       </c>
     </row>
     <row r="11">
@@ -2606,16 +2606,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85.05722367840552</v>
+        <v>84.65220287372729</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4031363247942257</v>
+        <v>0.3749506749212742</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8505722367840551</v>
+        <v>0.8465220287372729</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8469378652167083</v>
+        <v>0.8462163611569172</v>
       </c>
     </row>
     <row r="12">
@@ -2625,16 +2625,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84.162406249189</v>
+        <v>80.68296438550507</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4199690709200998</v>
+        <v>0.5267995348821084</v>
       </c>
       <c r="D12" t="n">
-        <v>0.84162406249189</v>
+        <v>0.8068296438550506</v>
       </c>
       <c r="E12" t="n">
-        <v>0.839675172176183</v>
+        <v>0.800403351131488</v>
       </c>
     </row>
     <row r="13">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.96195468818935</v>
+        <v>79.87499891867576</v>
       </c>
       <c r="C13" t="n">
-        <v>0.467499369662255</v>
+        <v>0.5282245957603057</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8196195468818935</v>
+        <v>0.7987499891867577</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8170459789184324</v>
+        <v>0.7907209168567372</v>
       </c>
     </row>
     <row r="14">
@@ -2663,16 +2663,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77.21078902066627</v>
+        <v>75.52331767575843</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6002812931391721</v>
+        <v>0.7112384095788002</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7721078902066627</v>
+        <v>0.7552331767575844</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7558562279704109</v>
+        <v>0.731431221237024</v>
       </c>
     </row>
     <row r="15">
@@ -2682,16 +2682,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>71.12016539935466</v>
+        <v>68.84999005181706</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6278609504302343</v>
+        <v>0.733951140443484</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7112016539935466</v>
+        <v>0.6884999005181706</v>
       </c>
       <c r="E15" t="n">
-        <v>0.712541193620307</v>
+        <v>0.6738341146876619</v>
       </c>
     </row>
     <row r="16">
@@ -2701,16 +2701,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.43772870007527</v>
+        <v>69.58762619053797</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7651059688379367</v>
+        <v>0.8181834354996681</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7143772870007525</v>
+        <v>0.6958762619053798</v>
       </c>
       <c r="E16" t="n">
-        <v>0.703296060366865</v>
+        <v>0.6812333375570251</v>
       </c>
     </row>
     <row r="17">
@@ -2720,16 +2720,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>83.63973736797031</v>
+        <v>75.86458360366439</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3942669187982877</v>
+        <v>0.7833977055735886</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8363973736797032</v>
+        <v>0.7586458360366439</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8324872611858002</v>
+        <v>0.7398514010244652</v>
       </c>
     </row>
     <row r="18">
@@ -2739,16 +2739,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77.28068581908148</v>
+        <v>73.01914376421942</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5535173771282037</v>
+        <v>0.6244256979009758</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7728068581908147</v>
+        <v>0.7301914376421941</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7585175291222589</v>
+        <v>0.7093859797587945</v>
       </c>
     </row>
     <row r="19">
@@ -2758,16 +2758,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.69562020432701</v>
+        <v>80.53616380764539</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4363587879925035</v>
+        <v>0.5387873081412787</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8369562020432703</v>
+        <v>0.805361638076454</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8351097497591189</v>
+        <v>0.8007530460714986</v>
       </c>
     </row>
     <row r="20">
@@ -2777,16 +2777,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>72.01437728700076</v>
+        <v>66.16129897317451</v>
       </c>
       <c r="C20" t="n">
-        <v>0.795159287774004</v>
+        <v>0.9890307982607434</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7201437728700075</v>
+        <v>0.6616129897317451</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7044585404095891</v>
+        <v>0.6405060722112992</v>
       </c>
     </row>
     <row r="21">
@@ -2796,16 +2796,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>59.9835638716598</v>
+        <v>66.61156238375764</v>
       </c>
       <c r="C21" t="n">
-        <v>1.196075654377152</v>
+        <v>1.113158527916918</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5998356387165978</v>
+        <v>0.6661156238375765</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5678368254860969</v>
+        <v>0.6298905328270903</v>
       </c>
     </row>
     <row r="22">
@@ -2815,16 +2815,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.43026323757127</v>
+        <v>79.28745058348255</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6127407508591811</v>
+        <v>0.6102698499957721</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7843026323757126</v>
+        <v>0.7928745058348255</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7739254699755332</v>
+        <v>0.7839417427321086</v>
       </c>
     </row>
     <row r="23">
@@ -2834,16 +2834,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>75.90939367987612</v>
+        <v>75.36968312874679</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6227056656032801</v>
+        <v>0.6328166236480077</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7590939367987612</v>
+        <v>0.7536968312874679</v>
       </c>
       <c r="E23" t="n">
-        <v>0.746816194485642</v>
+        <v>0.7386274619540376</v>
       </c>
     </row>
     <row r="24">
@@ -2853,16 +2853,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.74522270953901</v>
+        <v>72.50227078088911</v>
       </c>
       <c r="C24" t="n">
-        <v>0.583495420217514</v>
+        <v>0.7278844511912514</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7774522270953901</v>
+        <v>0.7250227078088911</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7731850258779851</v>
+        <v>0.7166846064893473</v>
       </c>
     </row>
     <row r="25">
@@ -2872,16 +2872,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.25884306957673</v>
+        <v>72.26213029524476</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8341721368332704</v>
+        <v>0.7452717835704485</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7225884306957673</v>
+        <v>0.7226213029524476</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7037347207865781</v>
+        <v>0.7068905724671574</v>
       </c>
     </row>
     <row r="26">
@@ -2891,16 +2891,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>77.67757506552825</v>
+        <v>73.61577522296906</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5764339478376012</v>
+        <v>0.6635756678879261</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7767757506552825</v>
+        <v>0.7361577522296906</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7616066883303693</v>
+        <v>0.7247899843479563</v>
       </c>
     </row>
     <row r="27">
@@ -2910,16 +2910,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>68.59618162786876</v>
+        <v>68.46062682203133</v>
       </c>
       <c r="C27" t="n">
-        <v>1.120637027760191</v>
+        <v>1.084197840209041</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6859618162786875</v>
+        <v>0.6846062682203133</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6764528023692428</v>
+        <v>0.6738801667694352</v>
       </c>
     </row>
     <row r="28">
@@ -2929,16 +2929,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>73.54207216325401</v>
+        <v>70.74888191074317</v>
       </c>
       <c r="C28" t="n">
-        <v>0.809806699885909</v>
+        <v>0.8382936663925648</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7354207216325401</v>
+        <v>0.7074888191074317</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7163313133133441</v>
+        <v>0.6842114939376788</v>
       </c>
     </row>
     <row r="29">
@@ -2948,16 +2948,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>92.44837758112094</v>
+        <v>82.98289777593232</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2018348857100742</v>
+        <v>0.4905671935838957</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9244837758112094</v>
+        <v>0.8298289777593231</v>
       </c>
       <c r="E29" t="n">
-        <v>0.924662381882283</v>
+        <v>0.8144585026849367</v>
       </c>
     </row>
     <row r="30">
@@ -2967,16 +2967,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>86.34373999775084</v>
+        <v>85.90766356110348</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3229068635574852</v>
+        <v>0.3575908647258378</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8634373999775085</v>
+        <v>0.8590766356110346</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8562181686817363</v>
+        <v>0.849751748719162</v>
       </c>
     </row>
     <row r="31">
@@ -2986,16 +2986,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.37201013849601</v>
+        <v>97.11087466154552</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1669877971555858</v>
+        <v>0.1033161937859404</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9437201013849601</v>
+        <v>0.9711087466154552</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9428145819227506</v>
+        <v>0.9709770394595271</v>
       </c>
     </row>
     <row r="32">
@@ -3005,16 +3005,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.19945385917411</v>
+        <v>76.50722468764148</v>
       </c>
       <c r="C32" t="n">
-        <v>0.582113889648218</v>
+        <v>0.6400204403682882</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7819945385917411</v>
+        <v>0.7650722468764148</v>
       </c>
       <c r="E32" t="n">
-        <v>0.772046650738996</v>
+        <v>0.7523872086930959</v>
       </c>
     </row>
     <row r="33">
@@ -3024,16 +3024,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.889557996690627</v>
+        <v>6.50051521932562</v>
       </c>
       <c r="C33" t="n">
-        <v>0.225194841899142</v>
+        <v>0.2056882709963405</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0688955799669063</v>
+        <v>0.06500515219325619</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07517885411420748</v>
+        <v>0.06994153628285786</v>
       </c>
     </row>
   </sheetData>
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70.5348662185659</v>
+        <v>68.02472339726123</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6795832360784213</v>
+        <v>0.7778947432835897</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7053486621856591</v>
+        <v>0.6802472339726122</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6860463197183873</v>
+        <v>0.6529650826894474</v>
       </c>
     </row>
     <row r="3">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.62560229759774</v>
+        <v>60.58322303826158</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8075497059772412</v>
+        <v>1.040620111161843</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6962560229759773</v>
+        <v>0.6058322303826158</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6879405557718753</v>
+        <v>0.5874910389582758</v>
       </c>
     </row>
     <row r="4">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.29581570774835</v>
+        <v>74.03013866901964</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5895592865844568</v>
+        <v>0.691942336782813</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7629581570774834</v>
+        <v>0.7403013866901963</v>
       </c>
       <c r="E4" t="n">
-        <v>0.758432154162121</v>
+        <v>0.7253225613391184</v>
       </c>
     </row>
     <row r="5">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69.23883424597099</v>
+        <v>61.67570653725378</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6783039345095555</v>
+        <v>0.8500880382955074</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6923883424597099</v>
+        <v>0.6167570653725378</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6804115812251705</v>
+        <v>0.5947780720325342</v>
       </c>
     </row>
     <row r="6">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.20653292848553</v>
+        <v>68.79860552426923</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8434494550029437</v>
+        <v>0.7682702978452047</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6520653292848554</v>
+        <v>0.6879860552426924</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6387533377281718</v>
+        <v>0.6648649809109356</v>
       </c>
     </row>
     <row r="7">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.13487140892222</v>
+        <v>63.71058573171048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9894270713130633</v>
+        <v>0.9437551041444143</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6113487140892222</v>
+        <v>0.6371058573171048</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6013941897600308</v>
+        <v>0.6181941088111833</v>
       </c>
     </row>
     <row r="8">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.87935881798286</v>
+        <v>70.84092422944835</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6313720924973799</v>
+        <v>0.7305530519302313</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7387935881798285</v>
+        <v>0.7084092422944834</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7153549057788945</v>
+        <v>0.6827931367524032</v>
       </c>
     </row>
     <row r="9">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76.62895007742281</v>
+        <v>78.48199378887361</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5811096196392707</v>
+        <v>0.542850920309623</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7662895007742282</v>
+        <v>0.7848199378887361</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7571342605015666</v>
+        <v>0.7767158646360418</v>
       </c>
     </row>
     <row r="10">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.60725438801373</v>
+        <v>76.88595922110053</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4762814674943608</v>
+        <v>0.6218677305616438</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7860725438801374</v>
+        <v>0.7688595922110053</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7821025582744143</v>
+        <v>0.7745222677536988</v>
       </c>
     </row>
     <row r="11">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.54481440150866</v>
+        <v>73.24146402650543</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5449039312700431</v>
+        <v>0.8066818536336845</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8054481440150866</v>
+        <v>0.7324146402650542</v>
       </c>
       <c r="E11" t="n">
-        <v>0.805248700477355</v>
+        <v>0.7248401649665511</v>
       </c>
     </row>
     <row r="12">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>74.88109758734937</v>
+        <v>71.22639469199561</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6617162306404983</v>
+        <v>0.7261096756905318</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7488109758734937</v>
+        <v>0.7122639469199561</v>
       </c>
       <c r="E12" t="n">
-        <v>0.744251016200786</v>
+        <v>0.7013037220589655</v>
       </c>
     </row>
     <row r="13">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.43306602998295</v>
+        <v>74.81440150866356</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4896842940710485</v>
+        <v>0.6232491079717875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8243306602998295</v>
+        <v>0.7481440150866356</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8201574395942766</v>
+        <v>0.7446703297760765</v>
       </c>
     </row>
     <row r="14">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.44326508014775</v>
+        <v>70.91263765257484</v>
       </c>
       <c r="C14" t="n">
-        <v>0.738213028696676</v>
+        <v>0.8149596557021141</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7144326508014776</v>
+        <v>0.7091263765257485</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6998246122982831</v>
+        <v>0.6845951973459931</v>
       </c>
     </row>
     <row r="15">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61.38703622003651</v>
+        <v>60.05069248003876</v>
       </c>
       <c r="C15" t="n">
-        <v>1.014229131738345</v>
+        <v>0.9288823624451956</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6138703622003651</v>
+        <v>0.6005069248003876</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5916571809638022</v>
+        <v>0.593233188292588</v>
       </c>
     </row>
     <row r="16">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.73509286412512</v>
+        <v>63.51836953606865</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8531731357177097</v>
+        <v>0.9983528338372707</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6673509286412512</v>
+        <v>0.6351836953606865</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6531335758503263</v>
+        <v>0.6136621564465206</v>
       </c>
     </row>
     <row r="17">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>74.53905310599573</v>
+        <v>72.38081644304881</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6650105443472664</v>
+        <v>0.6911142790069182</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7453905310599572</v>
+        <v>0.7238081644304881</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7316537741534352</v>
+        <v>0.7152889535084703</v>
       </c>
     </row>
     <row r="18">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>63.50150087803528</v>
+        <v>69.68788657341327</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8771787125229216</v>
+        <v>0.7507439298244815</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6350150087803528</v>
+        <v>0.6968788657341326</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5910765770029572</v>
+        <v>0.6837142424558119</v>
       </c>
     </row>
     <row r="19">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>79.27274457391499</v>
+        <v>75.11206844349864</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5804689269978554</v>
+        <v>0.6941815913344423</v>
       </c>
       <c r="D19" t="n">
-        <v>0.79272744573915</v>
+        <v>0.7511206844349865</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7868261777308093</v>
+        <v>0.7303905427727123</v>
       </c>
     </row>
     <row r="20">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>64.27287433282295</v>
+        <v>67.16338376629555</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9476626666883627</v>
+        <v>0.8343515384942293</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6427287433282295</v>
+        <v>0.6716338376629556</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6200016105338987</v>
+        <v>0.6572423047586993</v>
       </c>
     </row>
     <row r="21">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63.43800551907889</v>
+        <v>64.97573508421354</v>
       </c>
       <c r="C21" t="n">
-        <v>1.148979418259114</v>
+        <v>1.020336492514859</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6343800551907888</v>
+        <v>0.6497573508421353</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5952979856612103</v>
+        <v>0.6278008042593685</v>
       </c>
     </row>
     <row r="22">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.68581908147993</v>
+        <v>76.04728414605663</v>
       </c>
       <c r="C22" t="n">
-        <v>1.070707841527959</v>
+        <v>0.7609803001085917</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7068581908147994</v>
+        <v>0.7604728414605663</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6774066199312537</v>
+        <v>0.7416489167997015</v>
       </c>
     </row>
     <row r="23">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>71.1456846512513</v>
+        <v>62.62770439190651</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7109500512480735</v>
+        <v>0.9107227467000485</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7114568465125131</v>
+        <v>0.626277043919065</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7061151216888546</v>
+        <v>0.622150439157982</v>
       </c>
     </row>
     <row r="24">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>70.50329155096497</v>
+        <v>67.94816564157129</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8185307941089075</v>
+        <v>0.839239010338982</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7050329155096497</v>
+        <v>0.6794816564157129</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6875189596680837</v>
+        <v>0.6655267848891226</v>
       </c>
     </row>
     <row r="25">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.14065000562289</v>
+        <v>64.21889462711616</v>
       </c>
       <c r="C25" t="n">
-        <v>0.774928367882967</v>
+        <v>0.9357680954039097</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6914065000562288</v>
+        <v>0.6421889462711615</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6732935290726909</v>
+        <v>0.6108496997887516</v>
       </c>
     </row>
     <row r="26">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>72.34716563292071</v>
+        <v>69.27966504900562</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6936982332418362</v>
+        <v>0.8093699346063659</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7234716563292071</v>
+        <v>0.6927966504900562</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7094811622235724</v>
+        <v>0.6691525832547305</v>
       </c>
     </row>
     <row r="27">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>65.01293263782559</v>
+        <v>65.65584477374372</v>
       </c>
       <c r="C27" t="n">
-        <v>1.166816402226686</v>
+        <v>1.191394267044962</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6501293263782559</v>
+        <v>0.6565584477374372</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6469304786512844</v>
+        <v>0.6503134490453835</v>
       </c>
     </row>
     <row r="28">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.33727800413499</v>
+        <v>68.52429519286498</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9388022354493538</v>
+        <v>0.8078489689156413</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6933727800413498</v>
+        <v>0.6852429519286499</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6682778250645999</v>
+        <v>0.6652485760711974</v>
       </c>
     </row>
     <row r="29">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>83.60418342719228</v>
+        <v>80.71159785119248</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4454597170930356</v>
+        <v>0.5138784196848671</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8360418342719228</v>
+        <v>0.807115978511925</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8339183673413576</v>
+        <v>0.7982862167233142</v>
       </c>
     </row>
     <row r="30">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>84.72374328497651</v>
+        <v>83.87434147354216</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3284224194484219</v>
+        <v>0.3476151424382503</v>
       </c>
       <c r="D30" t="n">
-        <v>0.847237432849765</v>
+        <v>0.8387434147354217</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8375015363047498</v>
+        <v>0.8354951809106241</v>
       </c>
     </row>
     <row r="31">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.22365245374094</v>
+        <v>95.73136445817006</v>
       </c>
       <c r="C31" t="n">
-        <v>0.199803901737323</v>
+        <v>0.1696189335236947</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9422365245374096</v>
+        <v>0.9573136445817004</v>
       </c>
       <c r="E31" t="n">
-        <v>0.941763172833683</v>
+        <v>0.9573783072678527</v>
       </c>
     </row>
     <row r="32">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>72.47750124712729</v>
+        <v>70.69116226495615</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7315325284670366</v>
+        <v>0.77144138245119</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7247750124712729</v>
+        <v>0.7069116226495615</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7109635095389301</v>
+        <v>0.6923479624811352</v>
       </c>
     </row>
     <row r="33">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.559963599713707</v>
+        <v>7.497821917805291</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2277828329874043</v>
+        <v>0.2009626142583645</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07559963599713708</v>
+        <v>0.0749782191780529</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08247065648047749</v>
+        <v>0.0796824720265165</v>
       </c>
     </row>
   </sheetData>
@@ -3743,16 +3743,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58.60093945449355</v>
+        <v>55.59382001574407</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9085767827928066</v>
+        <v>0.924841827650865</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5860093945449355</v>
+        <v>0.5559382001574409</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5410857667994148</v>
+        <v>0.5195090319770566</v>
       </c>
     </row>
     <row r="3">
@@ -3762,16 +3762,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.23871313765689</v>
+        <v>54.61889808735369</v>
       </c>
       <c r="C3" t="n">
-        <v>1.222505031526089</v>
+        <v>1.16131328145663</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5523871313765689</v>
+        <v>0.546188980873537</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5229894593576802</v>
+        <v>0.5015932509183847</v>
       </c>
     </row>
     <row r="4">
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.52670005795898</v>
+        <v>62.32190589883995</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8043428731461366</v>
+        <v>1.040545399238666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6652670005795898</v>
+        <v>0.6232190589883996</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6477885218804353</v>
+        <v>0.5976628864561679</v>
       </c>
     </row>
     <row r="5">
@@ -3800,16 +3800,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.83184110589192</v>
+        <v>53.8974385591571</v>
       </c>
       <c r="C5" t="n">
-        <v>1.01963615467151</v>
+        <v>0.9668694026768208</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5083184110589192</v>
+        <v>0.5389743855915708</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4695827754119793</v>
+        <v>0.4914320775809106</v>
       </c>
     </row>
     <row r="6">
@@ -3819,16 +3819,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.72427962179604</v>
+        <v>54.60055882836357</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8792475660641988</v>
+        <v>0.987640218436718</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5672427962179604</v>
+        <v>0.5460055882836357</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5396045242983254</v>
+        <v>0.5127687689262834</v>
       </c>
     </row>
     <row r="7">
@@ -3838,16 +3838,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.03551933840258</v>
+        <v>44.09000077855345</v>
       </c>
       <c r="C7" t="n">
-        <v>1.048027124007543</v>
+        <v>1.205960999429226</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4603551933840258</v>
+        <v>0.4409000077855345</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4519973146582161</v>
+        <v>0.4084430188241717</v>
       </c>
     </row>
     <row r="8">
@@ -3857,16 +3857,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.47695049265133</v>
+        <v>74.21802956772983</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5777941369917243</v>
+        <v>0.6747597613216688</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7547695049265133</v>
+        <v>0.7421802956772983</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7400933022221494</v>
+        <v>0.7294952051123011</v>
       </c>
     </row>
     <row r="9">
@@ -3876,16 +3876,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71.20658483204872</v>
+        <v>70.99680793086445</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6383983876556159</v>
+        <v>0.6503554689697921</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7120658483204872</v>
+        <v>0.7099680793086446</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7129186328177883</v>
+        <v>0.7107933770643491</v>
       </c>
     </row>
     <row r="10">
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.21335824704366</v>
+        <v>72.71187467019611</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5699075281620025</v>
+        <v>0.603256826971968</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7421335824704366</v>
+        <v>0.7271187467019611</v>
       </c>
       <c r="E10" t="n">
-        <v>0.737198360377308</v>
+        <v>0.7200757208363056</v>
       </c>
     </row>
     <row r="11">
@@ -3914,16 +3914,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.38976115710344</v>
+        <v>60.053460670075</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8382304663459459</v>
+        <v>0.8747371822595597</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6638976115710344</v>
+        <v>0.60053460670075</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6539444044836292</v>
+        <v>0.5816304338830403</v>
       </c>
     </row>
     <row r="12">
@@ -3933,16 +3933,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61.26869609598699</v>
+        <v>56.22245867178782</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8532853742440543</v>
+        <v>1.096256074309349</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6126869609598699</v>
+        <v>0.5622245867178781</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5957185090907789</v>
+        <v>0.5252183657926588</v>
       </c>
     </row>
     <row r="13">
@@ -3952,16 +3952,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.63081860569728</v>
+        <v>67.49565307658371</v>
       </c>
       <c r="C13" t="n">
-        <v>0.888416947921117</v>
+        <v>0.8194532829026381</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6263081860569728</v>
+        <v>0.6749565307658371</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6074544631650175</v>
+        <v>0.6705589777054159</v>
       </c>
     </row>
     <row r="14">
@@ -3971,16 +3971,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58.0670248012526</v>
+        <v>65.90394380574227</v>
       </c>
       <c r="C14" t="n">
-        <v>1.10265941893061</v>
+        <v>0.7840794056653977</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5806702480125261</v>
+        <v>0.6590394380574226</v>
       </c>
       <c r="E14" t="n">
-        <v>0.527942678295887</v>
+        <v>0.6524599626693987</v>
       </c>
     </row>
     <row r="15">
@@ -3990,16 +3990,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>54.00885820811599</v>
+        <v>54.36491665152813</v>
       </c>
       <c r="C15" t="n">
-        <v>1.150564772884051</v>
+        <v>1.081277906894684</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5400885820811598</v>
+        <v>0.5436491665152813</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5194598151624985</v>
+        <v>0.5068852055015338</v>
       </c>
     </row>
     <row r="16">
@@ -4009,16 +4009,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.19193937663821</v>
+        <v>52.74716909315824</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9816460400819779</v>
+        <v>1.199719189604123</v>
       </c>
       <c r="D16" t="n">
-        <v>0.581919393766382</v>
+        <v>0.5274716909315824</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5776140248528943</v>
+        <v>0.4870458312724666</v>
       </c>
     </row>
     <row r="17">
@@ -4028,16 +4028,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55.21985484303498</v>
+        <v>56.09408385885691</v>
       </c>
       <c r="C17" t="n">
-        <v>1.094961655139923</v>
+        <v>0.9564427837729454</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5521985484303498</v>
+        <v>0.5609408385885691</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5298485251244679</v>
+        <v>0.5528546102470488</v>
       </c>
     </row>
     <row r="18">
@@ -4047,16 +4047,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.28375677990293</v>
+        <v>62.6427564252286</v>
       </c>
       <c r="C18" t="n">
-        <v>1.033232887585958</v>
+        <v>0.8555500219265619</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6228375677990294</v>
+        <v>0.626427564252286</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5996711880452733</v>
+        <v>0.6003318687256967</v>
       </c>
     </row>
     <row r="19">
@@ -4066,16 +4066,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65.41977006721513</v>
+        <v>66.42436353255651</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8589093287785847</v>
+        <v>0.7682122950752577</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6541977006721511</v>
+        <v>0.6642436353255651</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6325737112353655</v>
+        <v>0.6643050739968833</v>
       </c>
     </row>
     <row r="20">
@@ -4085,16 +4085,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>54.38213133331603</v>
+        <v>54.8494364138098</v>
       </c>
       <c r="C20" t="n">
-        <v>1.312281917780638</v>
+        <v>1.237809547906121</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5438213133331604</v>
+        <v>0.548494364138098</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4844833434621981</v>
+        <v>0.5049207034073093</v>
       </c>
     </row>
     <row r="21">
@@ -4104,16 +4104,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>56.56952049758215</v>
+        <v>59.87162518706909</v>
       </c>
       <c r="C21" t="n">
-        <v>1.074036738152305</v>
+        <v>1.008507578633726</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5656952049758216</v>
+        <v>0.5987162518706909</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5309164696614127</v>
+        <v>0.5675903131269883</v>
       </c>
     </row>
     <row r="22">
@@ -4123,16 +4123,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.61189110632445</v>
+        <v>65.06094343376672</v>
       </c>
       <c r="C22" t="n">
-        <v>0.954812528938055</v>
+        <v>0.8644577729205289</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6461189110632445</v>
+        <v>0.6506094343376673</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6254149963243901</v>
+        <v>0.6336039187696831</v>
       </c>
     </row>
     <row r="23">
@@ -4142,16 +4142,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.43293627107501</v>
+        <v>46.93734374864835</v>
       </c>
       <c r="C23" t="n">
-        <v>1.303872699042161</v>
+        <v>1.178790462017059</v>
       </c>
       <c r="D23" t="n">
-        <v>0.47432936271075</v>
+        <v>0.4693734374864834</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4515796219903691</v>
+        <v>0.4624119485629491</v>
       </c>
     </row>
     <row r="24">
@@ -4161,16 +4161,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>59.30976911564979</v>
+        <v>54.97902230988158</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9160127523044744</v>
+        <v>1.048862684269746</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5930976911564979</v>
+        <v>0.5497902230988158</v>
       </c>
       <c r="E24" t="n">
-        <v>0.581272283871437</v>
+        <v>0.5368589076299283</v>
       </c>
     </row>
     <row r="25">
@@ -4180,16 +4180,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.61287727402486</v>
+        <v>43.5465704720629</v>
       </c>
       <c r="C25" t="n">
-        <v>1.142983556787173</v>
+        <v>1.296093750993411</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4861287727402486</v>
+        <v>0.4354657047206291</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4479280609968811</v>
+        <v>0.4049861591701612</v>
       </c>
     </row>
     <row r="26">
@@ -4199,16 +4199,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>56.52125018382512</v>
+        <v>61.22405903165252</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9362517471114794</v>
+        <v>0.9317816980183125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5652125018382511</v>
+        <v>0.6122405903165252</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5471234629015915</v>
+        <v>0.5862673464898209</v>
       </c>
     </row>
     <row r="27">
@@ -4218,16 +4218,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>56.51225356620732</v>
+        <v>59.3344233081601</v>
       </c>
       <c r="C27" t="n">
-        <v>1.109118980417649</v>
+        <v>1.033166126534343</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5651225356620733</v>
+        <v>0.593344233081601</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5433075668569</v>
+        <v>0.5844534658273125</v>
       </c>
     </row>
     <row r="28">
@@ -4237,16 +4237,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65.13300288064775</v>
+        <v>60.48123253661364</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7745992129047712</v>
+        <v>0.8996583759784699</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6513300288064776</v>
+        <v>0.6048123253661364</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6301649620750392</v>
+        <v>0.5840077546716133</v>
       </c>
     </row>
     <row r="29">
@@ -4256,16 +4256,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>69.59644979627851</v>
+        <v>73.53644927724288</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7274524137377739</v>
+        <v>0.6601842048267523</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6959644979627851</v>
+        <v>0.7353644927724288</v>
       </c>
       <c r="E29" t="n">
-        <v>0.685850142101145</v>
+        <v>0.7262109349334482</v>
       </c>
     </row>
     <row r="30">
@@ -4275,16 +4275,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>77.99384077716935</v>
+        <v>78.49358558465039</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5041982667801979</v>
+        <v>0.4824361104615188</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7799384077716935</v>
+        <v>0.7849358558465038</v>
       </c>
       <c r="E30" t="n">
-        <v>0.777352656051297</v>
+        <v>0.7742516628877116</v>
       </c>
     </row>
     <row r="31">
@@ -4294,16 +4294,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.03027707852144</v>
+        <v>90.23486362338774</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2847380857604245</v>
+        <v>0.2965848850163941</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9003027707852145</v>
+        <v>0.9023486362338774</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9009848170723187</v>
+        <v>0.900552446679874</v>
       </c>
     </row>
     <row r="32">
@@ -4313,16 +4313,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>61.50138553678377</v>
+        <v>61.11825650164217</v>
       </c>
       <c r="C32" t="n">
-        <v>0.917023379221565</v>
+        <v>0.9196534842046417</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6150138553678377</v>
+        <v>0.6111825650164218</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5937954786881363</v>
+        <v>0.5899726409882292</v>
       </c>
     </row>
     <row r="33">
@@ -4332,16 +4332,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.534512147691037</v>
+        <v>10.0563632939447</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2343742312790693</v>
+        <v>0.2299925881019867</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0953451214769104</v>
+        <v>0.100563632939447</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1042499700841197</v>
+        <v>0.1100953716450715</v>
       </c>
     </row>
   </sheetData>
@@ -4397,16 +4397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46.48448515990623</v>
+        <v>42.68384674607912</v>
       </c>
       <c r="C2" t="n">
-        <v>1.210528089230259</v>
+        <v>1.385371854652961</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4648448515990623</v>
+        <v>0.4268384674607912</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3970552681055518</v>
+        <v>0.364007842901344</v>
       </c>
     </row>
     <row r="3">
@@ -4416,16 +4416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.20700871114802</v>
+        <v>43.29129144715785</v>
       </c>
       <c r="C3" t="n">
-        <v>1.505023649334908</v>
+        <v>1.258607374628385</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4020700871114802</v>
+        <v>0.4329129144715784</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3102318090665597</v>
+        <v>0.3673615550943218</v>
       </c>
     </row>
     <row r="4">
@@ -4435,16 +4435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.02518187873598</v>
+        <v>45.84935855846504</v>
       </c>
       <c r="C4" t="n">
-        <v>1.211361802121004</v>
+        <v>1.398224789897601</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5102518187873597</v>
+        <v>0.4584935855846504</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4496888317577086</v>
+        <v>0.3700768967525691</v>
       </c>
     </row>
     <row r="5">
@@ -4454,16 +4454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.01523369579321</v>
+        <v>46.99893597695482</v>
       </c>
       <c r="C5" t="n">
-        <v>1.151273196935654</v>
+        <v>1.077412112553914</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4101523369579321</v>
+        <v>0.4699893597695482</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3647720323500245</v>
+        <v>0.4271725996010468</v>
       </c>
     </row>
     <row r="6">
@@ -4473,16 +4473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.02354691649582</v>
+        <v>44.87971349233125</v>
       </c>
       <c r="C6" t="n">
-        <v>1.193037430445353</v>
+        <v>1.105919408798218</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4202354691649582</v>
+        <v>0.4487971349233125</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3669508413254999</v>
+        <v>0.4168964504321783</v>
       </c>
     </row>
     <row r="7">
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.54098218842724</v>
+        <v>30.53815344423395</v>
       </c>
       <c r="C7" t="n">
-        <v>1.299763544400533</v>
+        <v>1.473756795128187</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3754098218842724</v>
+        <v>0.3053815344423395</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3200932708126749</v>
+        <v>0.2517192728450591</v>
       </c>
     </row>
     <row r="8">
@@ -4511,16 +4511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.78577669357001</v>
+        <v>66.76147717540809</v>
       </c>
       <c r="C8" t="n">
-        <v>1.269413256707291</v>
+        <v>0.7892140252670894</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5578577669357001</v>
+        <v>0.6676147717540809</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5187724387550425</v>
+        <v>0.6430969716163486</v>
       </c>
     </row>
     <row r="9">
@@ -4530,16 +4530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57.15118642894835</v>
+        <v>60.95130580714366</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9293890113631884</v>
+        <v>0.8349399642397961</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5715118642894834</v>
+        <v>0.6095130580714366</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5513075199148417</v>
+        <v>0.6048226376842076</v>
       </c>
     </row>
     <row r="10">
@@ -4549,16 +4549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.21542573897698</v>
+        <v>60.47725326343654</v>
       </c>
       <c r="C10" t="n">
-        <v>0.762641075750192</v>
+        <v>0.9240352931121985</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6321542573897698</v>
+        <v>0.6047725326343654</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6228378773916604</v>
+        <v>0.578154343662535</v>
       </c>
     </row>
     <row r="11">
@@ -4568,16 +4568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.37411223280478</v>
+        <v>47.70240226991583</v>
       </c>
       <c r="C11" t="n">
-        <v>1.161324555675189</v>
+        <v>1.202491966883341</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4737411223280478</v>
+        <v>0.4770240226991583</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4573644789695169</v>
+        <v>0.4517188358069861</v>
       </c>
     </row>
     <row r="12">
@@ -4587,16 +4587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41.21134265867352</v>
+        <v>42.04214569330184</v>
       </c>
       <c r="C12" t="n">
-        <v>1.175298840800921</v>
+        <v>1.252615811427434</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4121134265867352</v>
+        <v>0.4204214569330184</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3561458186832718</v>
+        <v>0.3791158037629766</v>
       </c>
     </row>
     <row r="13">
@@ -4606,16 +4606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.25016652393187</v>
+        <v>45.59191688509416</v>
       </c>
       <c r="C13" t="n">
-        <v>1.348558979729811</v>
+        <v>1.330000125865141</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3925016652393187</v>
+        <v>0.4559191688509416</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3217462317061824</v>
+        <v>0.4110644132222066</v>
       </c>
     </row>
     <row r="14">
@@ -4625,16 +4625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.44175122622168</v>
+        <v>42.98644451941626</v>
       </c>
       <c r="C14" t="n">
-        <v>1.13360084493955</v>
+        <v>1.456036969522635</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4644175122622168</v>
+        <v>0.4298644451941626</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4398549860379891</v>
+        <v>0.3922888488637907</v>
       </c>
     </row>
     <row r="15">
@@ -4644,16 +4644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.5163798994801</v>
+        <v>42.4808173081082</v>
       </c>
       <c r="C15" t="n">
-        <v>1.204663241902987</v>
+        <v>1.312917912006378</v>
       </c>
       <c r="D15" t="n">
-        <v>0.435163798994801</v>
+        <v>0.424808173081082</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3864809253009127</v>
+        <v>0.3905940286409885</v>
       </c>
     </row>
     <row r="16">
@@ -4663,16 +4663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.4368722912828</v>
+        <v>45.89832091973114</v>
       </c>
       <c r="C16" t="n">
-        <v>1.16601665019989</v>
+        <v>1.399607095122337</v>
       </c>
       <c r="D16" t="n">
-        <v>0.424368722912828</v>
+        <v>0.4589832091973114</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3890240040972112</v>
+        <v>0.3917478483981648</v>
       </c>
     </row>
     <row r="17">
@@ -4682,16 +4682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44.39130096281109</v>
+        <v>37.73674512755301</v>
       </c>
       <c r="C17" t="n">
-        <v>1.156604515512784</v>
+        <v>1.422952750325203</v>
       </c>
       <c r="D17" t="n">
-        <v>0.443913009628111</v>
+        <v>0.3773674512755301</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3879122531965354</v>
+        <v>0.3015851755115878</v>
       </c>
     </row>
     <row r="18">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>54.27953529009767</v>
+        <v>50.05917006202476</v>
       </c>
       <c r="C18" t="n">
-        <v>1.043620671580235</v>
+        <v>1.132499476273855</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5427953529009766</v>
+        <v>0.5005917006202476</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5058696905442889</v>
+        <v>0.462547864166195</v>
       </c>
     </row>
     <row r="19">
@@ -4720,16 +4720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.59678716943918</v>
+        <v>47.99427330686252</v>
       </c>
       <c r="C19" t="n">
-        <v>1.519643498460452</v>
+        <v>1.158335440357526</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4859678716943918</v>
+        <v>0.4799427330686251</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4254707511454464</v>
+        <v>0.4476030938415551</v>
       </c>
     </row>
     <row r="20">
@@ -4739,16 +4739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.65433091981765</v>
+        <v>42.53756520385124</v>
       </c>
       <c r="C20" t="n">
-        <v>1.436947231491407</v>
+        <v>1.586405417323113</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4065433091981765</v>
+        <v>0.4253756520385125</v>
       </c>
       <c r="E20" t="n">
-        <v>0.361322790297931</v>
+        <v>0.3637478937900906</v>
       </c>
     </row>
     <row r="21">
@@ -4758,16 +4758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>46.52540246887948</v>
+        <v>43.45426863554183</v>
       </c>
       <c r="C21" t="n">
-        <v>1.276054456581672</v>
+        <v>2.150449904706693</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4652540246887948</v>
+        <v>0.4345426863554184</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4094896956390716</v>
+        <v>0.3543031287508071</v>
       </c>
     </row>
     <row r="22">
@@ -4777,16 +4777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.16678344968382</v>
+        <v>57.20836685438455</v>
       </c>
       <c r="C22" t="n">
-        <v>1.14106018046538</v>
+        <v>1.209774956603845</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5016678344968382</v>
+        <v>0.5720836685438455</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4821603478040054</v>
+        <v>0.537629945948359</v>
       </c>
     </row>
     <row r="23">
@@ -4796,16 +4796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.86652998728363</v>
+        <v>39.15803769928806</v>
       </c>
       <c r="C23" t="n">
-        <v>1.207561791936556</v>
+        <v>1.654532360037168</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4086652998728362</v>
+        <v>0.3915803769928806</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3696583912625617</v>
+        <v>0.3120001977940111</v>
       </c>
     </row>
     <row r="24">
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.76245469251464</v>
+        <v>42.61040320417997</v>
       </c>
       <c r="C24" t="n">
-        <v>1.227427951494853</v>
+        <v>1.337440679967403</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3976245469251464</v>
+        <v>0.4261040320417996</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3357121711235472</v>
+        <v>0.3485671147536014</v>
       </c>
     </row>
     <row r="25">
@@ -4834,16 +4834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>40.97673855310167</v>
+        <v>33.07061479770586</v>
       </c>
       <c r="C25" t="n">
-        <v>1.275189351042112</v>
+        <v>1.399077570438385</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4097673855310167</v>
+        <v>0.3307061479770587</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3779819620800003</v>
+        <v>0.2811931045698052</v>
       </c>
     </row>
     <row r="26">
@@ -4853,16 +4853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>44.0737376620905</v>
+        <v>50.25718215555498</v>
       </c>
       <c r="C26" t="n">
-        <v>1.300649064282576</v>
+        <v>1.312063766022523</v>
       </c>
       <c r="D26" t="n">
-        <v>0.440737376620905</v>
+        <v>0.5025718215555498</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3961467922851149</v>
+        <v>0.4527941115335762</v>
       </c>
     </row>
     <row r="27">
@@ -4872,16 +4872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>45.61129421534788</v>
+        <v>49.84402979264527</v>
       </c>
       <c r="C27" t="n">
-        <v>1.171116390327612</v>
+        <v>1.251682155330976</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4561129421534789</v>
+        <v>0.4984402979264527</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4053746994935227</v>
+        <v>0.4566504028047092</v>
       </c>
     </row>
     <row r="28">
@@ -4891,16 +4891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.01927352312736</v>
+        <v>43.53584373567246</v>
       </c>
       <c r="C28" t="n">
-        <v>1.117631101608276</v>
+        <v>1.322934725880623</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4801927352312736</v>
+        <v>0.4353584373567245</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4352437934404619</v>
+        <v>0.3815350056588184</v>
       </c>
     </row>
     <row r="29">
@@ -4910,16 +4910,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>56.07254388013737</v>
+        <v>58.00889281049145</v>
       </c>
       <c r="C29" t="n">
-        <v>1.062481501698494</v>
+        <v>0.9636815364162128</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5607254388013737</v>
+        <v>0.5800889281049144</v>
       </c>
       <c r="E29" t="n">
-        <v>0.527848584168276</v>
+        <v>0.5487583949770736</v>
       </c>
     </row>
     <row r="30">
@@ -4929,16 +4929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69.45483957473681</v>
+        <v>65.67574113962924</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7495359914377332</v>
+        <v>0.7390587372705341</v>
       </c>
       <c r="D30" t="n">
-        <v>0.694548395747368</v>
+        <v>0.6567574113962923</v>
       </c>
       <c r="E30" t="n">
-        <v>0.680534740801624</v>
+        <v>0.6474233992211296</v>
       </c>
     </row>
     <row r="31">
@@ -4948,16 +4948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>76.14598742203653</v>
+        <v>74.9579148608552</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5941481898228328</v>
+        <v>0.7103868237386147</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7614598742203652</v>
+        <v>0.749579148608552</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7567625599655059</v>
+        <v>0.7411145601472231</v>
       </c>
     </row>
     <row r="32">
@@ -4967,16 +4967,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>48.00923306718339</v>
+        <v>48.1747477631006</v>
       </c>
       <c r="C32" t="n">
-        <v>1.16671886857599</v>
+        <v>1.25174759332661</v>
       </c>
       <c r="D32" t="n">
-        <v>0.480092330671834</v>
+        <v>0.4817474776310059</v>
       </c>
       <c r="E32" t="n">
-        <v>0.436993851917418</v>
+        <v>0.4359097247584421</v>
       </c>
     </row>
     <row r="33">
@@ -4986,16 +4986,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.016586395715638</v>
+        <v>9.813857280450533</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1982025746320877</v>
+        <v>0.29004766553581</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09016586395715638</v>
+        <v>0.09813857280450533</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1044944997276256</v>
+        <v>0.1143933680632561</v>
       </c>
     </row>
   </sheetData>
